--- a/multi-sync.xlsx
+++ b/multi-sync.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isolutionsch-my.sharepoint.com/personal/damien_bowden_isolutions_ch/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{2343464F-701D-41C4-B8CA-1431A5E5FE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69A2FF16-EE61-4EB2-BE34-528AF20339B8}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{2343464F-701D-41C4-B8CA-1431A5E5FE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{041353A9-616A-4487-BB51-966B8C8202AB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{15AF2F5F-2BEB-4A1E-A13F-3A139A81CD28}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>companyone</t>
   </si>
@@ -49,12 +49,15 @@
   <si>
     <t>f3301478-744c-453b-833c-1140827c9e67</t>
   </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +65,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,8 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,13 +126,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209558</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590375</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>119067</xdr:rowOff>
     </xdr:to>
@@ -138,8 +157,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133726" y="1485900"/>
-          <a:ext cx="962032" cy="623892"/>
+          <a:off x="3119437" y="809625"/>
+          <a:ext cx="2004838" cy="1300167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -151,15 +170,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>809619</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>509594</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>468817</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>109542</xdr:rowOff>
+      <xdr:rowOff>100018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -182,14 +201,133 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5724525" y="1514475"/>
-          <a:ext cx="900119" cy="585792"/>
+          <a:off x="6610344" y="862013"/>
+          <a:ext cx="1888048" cy="1228730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>61913</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21434</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E918F6B-6685-5996-9722-8DA5556BB94A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4981400" y="1285875"/>
+          <a:ext cx="1814688" cy="2384"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99808</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33A489F7-95B9-730C-388D-A8CDC7A748BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5262978" y="862842"/>
+          <a:ext cx="1153974" cy="324058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>members sync</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -492,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3869A978-52DA-44E8-92AD-6E55C780DA28}">
-  <dimension ref="F14:J16"/>
+  <dimension ref="E3:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="103" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -504,21 +642,314 @@
     <col min="9" max="9" width="13.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F14" t="s">
+    <row r="3" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="5:15" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.85">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.45">
-      <c r="F16" t="s">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J16" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
